--- a/德福词汇/作文.xlsx
+++ b/德福词汇/作文.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10918"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7D04D-15E0-40BC-8A7A-D8636C35D621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A4C7D04D-15E0-40BC-8A7A-D8636C35D621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC956251-51FE-8049-9444-879644D14A6E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="809" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,25 @@
     <sheet name="除此之外" sheetId="3" r:id="rId14"/>
     <sheet name="接下来，然后" sheetId="2" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="269">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,10 +905,6 @@
     <t>jederzeit</t>
   </si>
   <si>
-    <t>Die Zahlen weisen eine immer steigende Tendenz auf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Während sich die Zahlen von..bis..verdreifachten(von A auf B), verlangsamte sich der Zuwachs von..bis..(von C auf D) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1162,40 +1166,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>比较级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A beträgt der Anteil von B deutlich niedriger als der Durchschnittswert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offensichtlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deutlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darüber hinaus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Die steigende Tendenz von A steht der Abnahme von B in gleichen Zeitraum entgegen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A beträgt der Anteil von B deutlich niedriger als der Durchschnittswert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明显的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offensichtlich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deutlich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显然的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>darüber hinaus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die Zahlen weisen eine immer steigende Tendenz auf</t>
   </si>
 </sst>
 </file>
@@ -1328,11 +1334,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1343,16 +1354,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,19 +1642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="10.48046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.98828125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +1674,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>106</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>108</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>207</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>207</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>210</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>124</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>126</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>212</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>214</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>216</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>218</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>220</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>222</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>224</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>226</v>
       </c>
@@ -1844,13 +1850,13 @@
       <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>110</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -1866,15 +1872,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -1898,23 +1904,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -1968,69 +1974,69 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.0703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>112</v>
       </c>
@@ -2038,19 +2044,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2071,13 +2077,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>108</v>
       </c>
@@ -2107,12 +2113,12 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>124</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>126</v>
       </c>
@@ -2142,13 +2148,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.71484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.94140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2156,31 +2162,31 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>97</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>91</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>102</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>91</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>91</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
@@ -2254,25 +2260,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C906E5-98EF-D041-8185-DFE89D8412CA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.0234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -2280,15 +2286,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -2304,15 +2310,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -2344,9 +2350,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2360,154 +2366,154 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.92578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="32.48046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.1171875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.92578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B5" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B19" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2528,13 +2534,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>197</v>
       </c>
@@ -2542,15 +2548,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>201</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>201</v>
       </c>
@@ -2566,15 +2572,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>199</v>
       </c>
@@ -2582,20 +2588,20 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2612,14 +2618,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73828125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="6"/>
+    <col min="1" max="1" width="13.71484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.73828125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>176</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>178</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>180</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>182</v>
       </c>
@@ -2651,15 +2657,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>185</v>
       </c>
@@ -2667,15 +2673,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>189</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
@@ -2699,19 +2705,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2729,13 +2735,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.0703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.71484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>149</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>151</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>151</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>154</v>
       </c>
@@ -2767,23 +2773,23 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>160</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>162</v>
       </c>
@@ -2799,15 +2805,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>166</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>166</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>166</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>170</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>172</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="17" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>174</v>
       </c>
@@ -2855,35 +2861,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2901,40 +2907,40 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.50390625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
       <c r="B3" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
       <c r="B4" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="14" t="s">
         <v>148</v>
       </c>
@@ -2956,76 +2962,76 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.45703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
       <c r="B2" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
       <c r="B7" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
       <c r="B9" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="21" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3046,76 +3052,76 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3136,13 +3142,13 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.0234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.98828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>114</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>116</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>117</v>
       </c>
@@ -3166,15 +3172,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>119</v>
       </c>
@@ -3182,23 +3188,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>120</v>
       </c>
